--- a/用例数据/沪银行/买卖交易/买方银行间一级交收失败/测试结果.xlsx
+++ b/用例数据/沪银行/买卖交易/买方银行间一级交收失败/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="258">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -445,9 +445,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>20221214223318</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -484,9 +481,6 @@
     <t>0.00000000</t>
   </si>
   <si>
-    <t>20221214000000</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -544,45 +538,21 @@
     <t>701</t>
   </si>
   <si>
-    <t>005_006_005</t>
-  </si>
-  <si>
     <t>ZQ</t>
   </si>
   <si>
-    <t>沪市银行间现券交易业务失败</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>30002169</t>
-  </si>
-  <si>
     <t>-150.000</t>
   </si>
   <si>
-    <t>968908008.050</t>
-  </si>
-  <si>
     <t>150.000</t>
   </si>
   <si>
-    <t>000007096061</t>
-  </si>
-  <si>
-    <t>30002170</t>
-  </si>
-  <si>
     <t>2102001QF</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
-    <t>000007096062</t>
-  </si>
-  <si>
     <t>REGNAME</t>
   </si>
   <si>
@@ -812,6 +782,18 @@
   </si>
   <si>
     <t>1.000000</t>
+  </si>
+  <si>
+    <t>30002592</t>
+  </si>
+  <si>
+    <t>20230130000000</t>
+  </si>
+  <si>
+    <t>817010871.870</t>
+  </si>
+  <si>
+    <t>000007115403</t>
   </si>
 </sst>
 </file>
@@ -1140,12 +1122,12 @@
   <dimension ref="A1:CH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,10 +1141,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1171,43 +1153,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
@@ -1222,458 +1204,458 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BY1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="BP2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,27 +1665,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI11"/>
+  <dimension ref="A1:EI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
+    <col min="25" max="25" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,9 +2104,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>139</v>
@@ -2133,661 +2115,335 @@
         <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="V2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="X2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DN2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="EI2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
